--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.256190929904637</v>
+        <v>5.428715350796693</v>
       </c>
       <c r="D2">
-        <v>2.220446049250313E-16</v>
+        <v>6.505707639270497E-08</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7.297406099639629</v>
+        <v>7.588202386008843</v>
       </c>
       <c r="D3">
-        <v>4.505285033928885E-13</v>
+        <v>5.351274978693255E-14</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12.59895037496651</v>
+        <v>14.95605546505332</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>11.15761470809547</v>
+        <v>11.38019880374943</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>12.64409480154913</v>
+        <v>12.25143824861036</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>19.78299003928591</v>
+        <v>11.19106500110048</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>9.535158471978738</v>
+        <v>13.79811665608808</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8.78637401523199</v>
+        <v>4.542554067930547</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5.954015320330797E-06</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -586,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>8.562935933037744</v>
+        <v>8.026149282465457</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.998401444325282E-15</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>11.36444152512101</v>
+        <v>12.26251647594378</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>9.395791661978574</v>
+        <v>10.15780203888068</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>10.81180372217817</v>
+        <v>10.26720719954728</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>16.31603555566536</v>
+        <v>9.45488020867294</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>7.846265174394465</v>
+        <v>11.3616561052871</v>
       </c>
       <c r="D15">
-        <v>7.549516567451064E-15</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -688,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>8.69234974864635</v>
+        <v>5.687090854113968</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.521301817852816E-08</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -705,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>7.332142749926204</v>
+        <v>7.533170029143039</v>
       </c>
       <c r="D17">
-        <v>3.506084311766244E-13</v>
+        <v>8.060219158778636E-14</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>12.60334894630716</v>
+        <v>15.00383663467488</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>11.10810913802645</v>
+        <v>11.29321781418928</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>12.54669167302557</v>
+        <v>12.17023307139602</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>19.8773519576282</v>
+        <v>11.19092885148498</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>9.515632879012074</v>
+        <v>13.79717325390092</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4.807134112853835</v>
+        <v>3.998669556398251</v>
       </c>
       <c r="D23">
-        <v>1.667785260117682E-06</v>
+        <v>6.646301049251235E-05</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -824,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>5.936588071271291</v>
+        <v>8.2590755957063</v>
       </c>
       <c r="D24">
-        <v>3.528466852031897E-09</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>12.01888706597139</v>
+        <v>13.83915927442726</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>10.78013801302591</v>
+        <v>9.902007122139366</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>13.54509409252436</v>
+        <v>11.2694593108779</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>19.70417960062113</v>
+        <v>10.99490916883185</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>8.868000081302927</v>
+        <v>13.62872290884902</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>12.54174827458355</v>
+        <v>11.7288793133697</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>14.18793235606229</v>
+        <v>9.679459355247777</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>14.01323444302996</v>
+        <v>12.73570378805782</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>10.80525341999577</v>
+        <v>11.85234556241467</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>12.68894364420937</v>
+        <v>10.39556310996792</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>15.98188671103701</v>
+        <v>8.729830154733497</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>8.501675696079831</v>
+        <v>11.40908217091391</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>13.4500401207423</v>
+        <v>11.21394411130164</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>7.572739221284962</v>
+        <v>8.600704006392009</v>
       </c>
       <c r="D38">
-        <v>5.995204332975845E-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>13.09887663788723</v>
+        <v>11.21083720105544</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>11.21007556889814</v>
+        <v>12.22947840261592</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>11.93308101699227</v>
+        <v>11.43262446024979</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>18.06220041041836</v>
+        <v>9.102135207974369</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>8.748225055312796</v>
+        <v>13.04831366252636</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>11.68669677871712</v>
+        <v>10.22083734255848</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>5.747435495867457</v>
+        <v>6.680937001884318</v>
       </c>
       <c r="D45">
-        <v>1.073967204057169E-08</v>
+        <v>3.219224886663596E-11</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>9.486722928433592</v>
+        <v>10.66849421365548</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>8.384780601944136</v>
+        <v>9.024525614698298</v>
       </c>
       <c r="D47">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>9.643580908408296</v>
+        <v>9.13830197073249</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>14.66550792042708</v>
+        <v>8.605860809629439</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>7.142255538405483</v>
+        <v>10.15720911016083</v>
       </c>
       <c r="D50">
-        <v>1.362465695819992E-12</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7.757252643328725</v>
+        <v>5.607504312747027</v>
       </c>
       <c r="D51">
-        <v>1.48769885299771E-14</v>
+        <v>2.395753306849713E-08</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -1300,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>7.152629830062295</v>
+        <v>7.826943042716973</v>
       </c>
       <c r="D52">
-        <v>1.266098337282529E-12</v>
+        <v>8.659739592076221E-15</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>11.75386703136762</v>
+        <v>13.90189772327733</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>10.37114955706324</v>
+        <v>11.15429726278328</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>12.20998201376336</v>
+        <v>11.66045329762489</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>18.51519832125787</v>
+        <v>10.56870668144853</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>8.811565757137702</v>
+        <v>12.87729699401558</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1.360885868947504</v>
+        <v>0.3211630137570719</v>
       </c>
       <c r="D58">
-        <v>0.1737323924232266</v>
+        <v>0.74812683126579</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -1419,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>1.860452907530211</v>
+        <v>-1.866949510347526</v>
       </c>
       <c r="D59">
-        <v>0.06299619749593588</v>
+        <v>0.06208280264152122</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -1436,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>-0.9181335677285377</v>
+        <v>-1.498646340472044</v>
       </c>
       <c r="D60">
-        <v>0.3586808123233154</v>
+        <v>0.1341533866968256</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -1453,13 +1453,13 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>-2.288149342598624</v>
+        <v>1.70259819380042</v>
       </c>
       <c r="D61">
-        <v>0.02225260637424631</v>
+        <v>0.08882838250278091</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>10.61437610079644</v>
+        <v>4.162202535518333</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>3.311586657472887E-05</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1487,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>9.035832628542018</v>
+        <v>12.94186943227849</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>11.11877229052967</v>
+        <v>10.36664986293461</v>
       </c>
       <c r="D64">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="16">
   <si>
     <t>Modelo</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.428715350796693</v>
+        <v>6.129342789070967</v>
       </c>
       <c r="D2">
-        <v>6.505707639270497E-08</v>
+        <v>3.313112006964047E-09</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7.588202386008843</v>
+        <v>5.689178404966309</v>
       </c>
       <c r="D3">
-        <v>5.351274978693255E-14</v>
+        <v>4.0082434704658E-08</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>14.95605546505332</v>
+        <v>7.313096946548476</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.692868067948439E-12</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>11.38019880374943</v>
+        <v>7.998272624693561</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.176836406102666E-14</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>12.25143824861036</v>
+        <v>7.570115563891723</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.757793993168889E-13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -532,13 +532,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>11.19106500110048</v>
+        <v>7.346963482349071</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.337374655463464E-12</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -549,10 +549,10 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>13.79811665608808</v>
+        <v>9.225262683519684</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -563,16 +563,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>4.542554067930547</v>
+        <v>7.881894792264741</v>
       </c>
       <c r="D9">
-        <v>5.954015320330797E-06</v>
+        <v>2.819966482547898E-14</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -583,13 +583,13 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>8.026149282465457</v>
+        <v>4.336048293551071</v>
       </c>
       <c r="D10">
-        <v>1.998401444325282E-15</v>
+        <v>2.85649688822609E-05</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -600,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>12.26251647594378</v>
+        <v>6.022638851122547</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.161926524583805E-09</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -617,13 +617,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10.15780203888068</v>
+        <v>6.985440623045152</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.567812546454661E-11</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -634,13 +634,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>10.26720719954728</v>
+        <v>8.163139912905695</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.33066907387547E-15</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -651,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>9.45488020867294</v>
+        <v>7.479719904530153</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.255795798575491E-13</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -668,13 +668,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>11.3616561052871</v>
+        <v>7.222290653849736</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3.168132423070347E-12</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -682,16 +682,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
-        <v>5.687090854113968</v>
+        <v>9.29902607666186</v>
       </c>
       <c r="D16">
-        <v>1.521301817852816E-08</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -699,16 +699,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>7.533170029143039</v>
+        <v>7.833650067132137</v>
       </c>
       <c r="D17">
-        <v>8.060219158778636E-14</v>
+        <v>4.019007349143067E-14</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -719,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>15.00383663467488</v>
+        <v>6.276460087853002</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1.384601544529573E-09</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -736,13 +736,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>11.29321781418928</v>
+        <v>5.677138882338659</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4.280528442812681E-08</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -753,13 +753,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>12.17023307139602</v>
+        <v>7.341522768002342</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.389111048410996E-12</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>11.19092885148498</v>
+        <v>8.0016553138109</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1.13242748511766E-14</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -787,13 +787,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>13.79717325390092</v>
+        <v>7.573149321785887</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2.69784194983913E-13</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>3.998669556398251</v>
+        <v>7.366605527493524</v>
       </c>
       <c r="D23">
-        <v>6.646301049251235E-05</v>
+        <v>1.165956220461339E-12</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>8.2590755957063</v>
+        <v>9.220794717729014</v>
       </c>
       <c r="D24">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>13.83915927442726</v>
+        <v>7.883528624908579</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.775557561562891E-14</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -855,13 +855,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>9.902007122139366</v>
+        <v>2.726268478861579</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.008512010379494672</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -872,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>11.2694593108779</v>
+        <v>6.130772376731351</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.285452576662351E-09</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -889,13 +889,13 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>10.99490916883185</v>
+        <v>7.136724555144233</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5.679012815562601E-12</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -906,13 +906,13 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>13.62872290884902</v>
+        <v>7.501160119975993</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4.514166818125886E-13</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>11.7288793133697</v>
+        <v>7.46087808083427</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6.008527009271347E-13</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>9.679459355247777</v>
+        <v>7.154174598895085</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5.044409334686861E-12</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>12.73570378805782</v>
+        <v>9.279961535812538</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>11.85234556241467</v>
+        <v>7.938335721394182</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.84297022087776E-14</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -991,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>10.39556310996792</v>
+        <v>8.058656915660206</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.327471962526033E-15</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1008,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>8.729830154733497</v>
+        <v>5.508571626316348</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.059631213884416E-07</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1025,13 +1025,13 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>11.40908217091391</v>
+        <v>7.008497762734147</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.344813149728452E-11</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>11.21394411130164</v>
+        <v>8.435933456084062</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>8.600704006392009</v>
+        <v>7.042736789615304</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.069877519910278E-11</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>11.21083720105544</v>
+        <v>7.070293242394531</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8.893108471852429E-12</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>12.22947840261592</v>
+        <v>9.103313766460255</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
         <v>10</v>
       </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
       <c r="C41">
-        <v>11.43262446024979</v>
+        <v>7.74343899946073</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7.838174553853605E-14</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1127,10 +1127,10 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>9.102135207974369</v>
+        <v>11.92175987445959</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>13.04831366252636</v>
+        <v>5.792258091600652</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2.271116272822837E-08</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1158,16 +1158,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>10.22083734255848</v>
+        <v>7.228751732411254</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.030686812621752E-12</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>6.680937001884318</v>
+        <v>7.926553348350791</v>
       </c>
       <c r="D45">
-        <v>3.219224886663596E-11</v>
+        <v>2.020605904817785E-14</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -1192,16 +1192,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>10.66849421365548</v>
+        <v>7.361395867574009</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1.209254918421721E-12</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>9.024525614698298</v>
+        <v>7.169975360955958</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4.530154029680489E-12</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>9.13830197073249</v>
+        <v>8.994142721158154</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>8.605860809629439</v>
+        <v>8.04517649217046</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>8.215650382226158E-15</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -1263,13 +1263,13 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>10.15720911016083</v>
+        <v>7.927429689444206</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1.998401444325282E-14</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>5.607504312747027</v>
+        <v>5.743603937413681</v>
       </c>
       <c r="D51">
-        <v>2.395753306849713E-08</v>
+        <v>2.973109003434615E-08</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>7.826943042716973</v>
+        <v>7.008055413806487</v>
       </c>
       <c r="D52">
-        <v>8.659739592076221E-15</v>
+        <v>1.34878774815661E-11</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>13.90189772327733</v>
+        <v>7.842391644410532</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3.774758283725532E-14</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -1328,16 +1328,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>11.15429726278328</v>
+        <v>7.462006109410835</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5.95967719618784E-13</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>11.66045329762489</v>
+        <v>7.198273973997487</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>3.734568210234102E-12</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>10.56870668144853</v>
+        <v>9.249628338053698</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57">
-        <v>12.87729699401558</v>
+        <v>7.807997874361709</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4.862776847858186E-14</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -1396,84 +1396,84 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.3211630137570719</v>
+        <v>4.874556443214736</v>
       </c>
       <c r="D58">
-        <v>0.74812683126579</v>
+        <v>2.547181449541469E-06</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>-1.866949510347526</v>
+        <v>5.628975667346491</v>
       </c>
       <c r="D59">
-        <v>0.06208280264152122</v>
+        <v>5.560486515676644E-08</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>-1.498646340472044</v>
+        <v>7.135638097145171</v>
       </c>
       <c r="D60">
-        <v>0.1341533866968256</v>
+        <v>5.720979245893432E-12</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61">
-        <v>1.70259819380042</v>
+        <v>7.904473336526208</v>
       </c>
       <c r="D61">
-        <v>0.08882838250278091</v>
+        <v>2.375877272697835E-14</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>4.162202535518333</v>
+        <v>7.50142146785267</v>
       </c>
       <c r="D62">
-        <v>3.311586657472887E-05</v>
+        <v>4.505285033928885E-13</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>12.94186943227849</v>
+        <v>7.268537000986087</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2.3046009545169E-12</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -1498,18 +1498,171 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>10.36664986293461</v>
+        <v>9.249954030775257</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>7.874343128275965</v>
+      </c>
+      <c r="D65">
+        <v>2.97539770599542E-14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0.5333719674810627</v>
+      </c>
+      <c r="D66">
+        <v>0.6067316732500676</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0.8679322243904682</v>
+      </c>
+      <c r="D67">
+        <v>0.4022439599054577</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>-0.01864623655656174</v>
+      </c>
+      <c r="D68">
+        <v>0.9856428175419636</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>0.1215608505039952</v>
+      </c>
+      <c r="D69">
+        <v>0.9066100980529868</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1.894091908761226</v>
+      </c>
+      <c r="D70">
+        <v>0.06755822882963347</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>6.94495170260025</v>
+      </c>
+      <c r="D71">
+        <v>2.050182246193799E-11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>6.577379263357245</v>
+      </c>
+      <c r="D72">
+        <v>2.186013592364588E-10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>7.34435645151481</v>
+      </c>
+      <c r="D73">
+        <v>1.362021606610142E-12</v>
+      </c>
+      <c r="E73" t="s">
         <v>14</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6.129342789070967</v>
+        <v>5.636518091129741</v>
       </c>
       <c r="D2">
-        <v>3.313112006964047E-09</v>
+        <v>1.145354048293079E-05</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.689178404966309</v>
+        <v>4.311866060786169</v>
       </c>
       <c r="D3">
-        <v>4.0082434704658E-08</v>
+        <v>0.0002816624389738731</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.313096946548476</v>
+        <v>5.791045711614122</v>
       </c>
       <c r="D4">
-        <v>1.692868067948439E-12</v>
+        <v>7.951149563867332E-06</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7.998272624693561</v>
+        <v>6.120908812012834</v>
       </c>
       <c r="D5">
-        <v>1.176836406102666E-14</v>
+        <v>3.67921254418313E-06</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>7.570115563891723</v>
+        <v>6.101716454321259</v>
       </c>
       <c r="D6">
-        <v>2.757793993168889E-13</v>
+        <v>3.84664969921289E-06</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -535,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>7.346963482349071</v>
+        <v>7.91837218254468</v>
       </c>
       <c r="D7">
-        <v>1.337374655463464E-12</v>
+        <v>6.995991586045136E-08</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -552,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>9.225262683519684</v>
+        <v>5.793924396380716</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7.897454239236268E-06</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -569,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.881894792264741</v>
+        <v>7.222888882224355</v>
       </c>
       <c r="D9">
-        <v>2.819966482547898E-14</v>
+        <v>3.083063053743729E-07</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -586,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4.336048293551071</v>
+        <v>3.979940955020395</v>
       </c>
       <c r="D10">
-        <v>2.85649688822609E-05</v>
+        <v>0.0006333609825530662</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -603,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>6.022638851122547</v>
+        <v>4.505959219671162</v>
       </c>
       <c r="D11">
-        <v>6.161926524583805E-09</v>
+        <v>0.0001753018583174892</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -620,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>6.985440623045152</v>
+        <v>5.406969511476652</v>
       </c>
       <c r="D12">
-        <v>1.567812546454661E-11</v>
+        <v>1.97813312365902E-05</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -637,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>8.163139912905695</v>
+        <v>6.255841783842101</v>
       </c>
       <c r="D13">
-        <v>3.33066907387547E-15</v>
+        <v>2.69398390417841E-06</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>7.479719904530153</v>
+        <v>5.99361615974306</v>
       </c>
       <c r="D14">
-        <v>5.255795798575491E-13</v>
+        <v>4.946358789670313E-06</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -671,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>7.222290653849736</v>
+        <v>8.04942311779922</v>
       </c>
       <c r="D15">
-        <v>3.168132423070347E-12</v>
+        <v>5.328705965368385E-08</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -688,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>9.29902607666186</v>
+        <v>5.713297110069927</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9.551046070699343E-06</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -705,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>7.833650067132137</v>
+        <v>7.272712060199441</v>
       </c>
       <c r="D17">
-        <v>4.019007349143067E-14</v>
+        <v>2.766339517457084E-07</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -722,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>6.276460087853002</v>
+        <v>5.647896610076669</v>
       </c>
       <c r="D18">
-        <v>1.384601544529573E-09</v>
+        <v>1.114891323972245E-05</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>5.677138882338659</v>
+        <v>4.299167632376165</v>
       </c>
       <c r="D19">
-        <v>4.280528442812681E-08</v>
+        <v>0.0002905397748014238</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -756,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>7.341522768002342</v>
+        <v>5.817629428354874</v>
       </c>
       <c r="D20">
-        <v>1.389111048410996E-12</v>
+        <v>7.46910221427477E-06</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>8.0016553138109</v>
+        <v>6.12799034992442</v>
       </c>
       <c r="D21">
-        <v>1.13242748511766E-14</v>
+        <v>3.619328720061432E-06</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -790,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>7.573149321785887</v>
+        <v>6.114020870926963</v>
       </c>
       <c r="D22">
-        <v>2.69784194983913E-13</v>
+        <v>3.738430381039493E-06</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -807,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>7.366605527493524</v>
+        <v>7.909158998473044</v>
       </c>
       <c r="D23">
-        <v>1.165956220461339E-12</v>
+        <v>7.13178889277799E-08</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -824,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>9.220794717729014</v>
+        <v>5.799345440511664</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.797337738812971E-06</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -841,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>7.883528624908579</v>
+        <v>7.217805245870291</v>
       </c>
       <c r="D25">
-        <v>2.775557561562891E-14</v>
+        <v>3.11740962821716E-07</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -858,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>2.726268478861579</v>
+        <v>2.494871527303883</v>
       </c>
       <c r="D26">
-        <v>0.008512010379494672</v>
+        <v>0.02059645052341619</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -875,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>6.130772376731351</v>
+        <v>4.643670539851906</v>
       </c>
       <c r="D27">
-        <v>3.285452576662351E-09</v>
+        <v>0.0001252677480902964</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -892,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>7.136724555144233</v>
+        <v>5.675215368924245</v>
       </c>
       <c r="D28">
-        <v>5.679012815562601E-12</v>
+        <v>1.045074495409359E-05</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -909,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>7.501160119975993</v>
+        <v>5.720821364936925</v>
       </c>
       <c r="D29">
-        <v>4.514166818125886E-13</v>
+        <v>9.38282756179909E-06</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -926,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>7.46087808083427</v>
+        <v>6.047728025981449</v>
       </c>
       <c r="D30">
-        <v>6.008527009271347E-13</v>
+        <v>4.360638136802208E-06</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -943,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>7.154174598895085</v>
+        <v>7.706918887139473</v>
       </c>
       <c r="D31">
-        <v>5.044409334686861E-12</v>
+        <v>1.090728460884094E-07</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -960,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>9.279961535812538</v>
+        <v>5.799533888521103</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.79388080918153E-06</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -977,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>7.938335721394182</v>
+        <v>7.203584202660262</v>
       </c>
       <c r="D33">
-        <v>1.84297022087776E-14</v>
+        <v>3.215595709704644E-07</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -994,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>8.058656915660206</v>
+        <v>6.533099618323958</v>
       </c>
       <c r="D34">
-        <v>7.327471962526033E-15</v>
+        <v>1.429661666385584E-06</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1011,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>5.508571626316348</v>
+        <v>3.139397787917392</v>
       </c>
       <c r="D35">
-        <v>1.059631213884416E-07</v>
+        <v>0.004764677455612487</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1028,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>7.008497762734147</v>
+        <v>6.144802766344924</v>
       </c>
       <c r="D36">
-        <v>1.344813149728452E-11</v>
+        <v>3.481112960557198E-06</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1045,10 +1045,10 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>8.435933456084062</v>
+        <v>5.888543658442072</v>
       </c>
       <c r="D37">
-        <v>4.440892098500626E-16</v>
+        <v>6.323707134603396E-06</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1062,10 +1062,10 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>7.042736789615304</v>
+        <v>5.833610302955822</v>
       </c>
       <c r="D38">
-        <v>1.069877519910278E-11</v>
+        <v>7.19375618696283E-06</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1079,10 +1079,10 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>7.070293242394531</v>
+        <v>8.127830936110364</v>
       </c>
       <c r="D39">
-        <v>8.893108471852429E-12</v>
+        <v>4.532758457465036E-08</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1096,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>9.103313766460255</v>
+        <v>4.959639417898881</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5.809569839931861E-05</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -1113,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>7.74343899946073</v>
+        <v>9.549830277463794</v>
       </c>
       <c r="D41">
-        <v>7.838174553853605E-14</v>
+        <v>2.772182927657241E-09</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1130,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>11.92175987445959</v>
+        <v>9.32770205465871</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4.216664573064577E-09</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -1147,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>5.792258091600652</v>
+        <v>4.462958617510705</v>
       </c>
       <c r="D43">
-        <v>2.271116272822837E-08</v>
+        <v>0.0001947137330660098</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1164,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>7.228751732411254</v>
+        <v>5.745753801445408</v>
       </c>
       <c r="D44">
-        <v>3.030686812621752E-12</v>
+        <v>8.846669779405403E-06</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -1181,10 +1181,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>7.926553348350791</v>
+        <v>6.04567001826597</v>
       </c>
       <c r="D45">
-        <v>2.020605904817785E-14</v>
+        <v>4.38156400450751E-06</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -1198,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>7.361395867574009</v>
+        <v>5.858055782967347</v>
       </c>
       <c r="D46">
-        <v>1.209254918421721E-12</v>
+        <v>6.792433822955246E-06</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -1215,10 +1215,10 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>7.169975360955958</v>
+        <v>7.965213233173771</v>
       </c>
       <c r="D47">
-        <v>4.530154029680489E-12</v>
+        <v>6.345664749218827E-08</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1232,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>8.994142721158154</v>
+        <v>5.706611632530271</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>9.703087466617077E-06</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -1249,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>8.04517649217046</v>
+        <v>7.165013066362093</v>
       </c>
       <c r="D49">
-        <v>8.215650382226158E-15</v>
+        <v>3.498223013487234E-07</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>7.927429689444206</v>
+        <v>6.344614883164578</v>
       </c>
       <c r="D50">
-        <v>1.998401444325282E-14</v>
+        <v>2.197108210477694E-06</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>5.743603937413681</v>
+        <v>4.456080084220476</v>
       </c>
       <c r="D51">
-        <v>2.973109003434615E-08</v>
+        <v>0.0001980130164593863</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -1300,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>7.008055413806487</v>
+        <v>5.620627292294299</v>
       </c>
       <c r="D52">
-        <v>1.34878774815661E-11</v>
+        <v>1.189320252614756E-05</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -1317,10 +1317,10 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>7.842391644410532</v>
+        <v>6.025625107413418</v>
       </c>
       <c r="D53">
-        <v>3.774758283725532E-14</v>
+        <v>4.590822228811575E-06</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -1334,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>7.462006109410835</v>
+        <v>6.005243624812292</v>
       </c>
       <c r="D54">
-        <v>5.95967719618784E-13</v>
+        <v>4.814066743019652E-06</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -1351,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>7.198273973997487</v>
+        <v>8.012173778048647</v>
       </c>
       <c r="D55">
-        <v>3.734568210234102E-12</v>
+        <v>5.756053234051706E-08</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>9.249628338053698</v>
+        <v>5.693267506750887</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1.001396999433801E-05</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>7.807997874361709</v>
+        <v>7.305415274211782</v>
       </c>
       <c r="D57">
-        <v>4.862776847858186E-14</v>
+        <v>2.57681175064306E-07</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>4.874556443214736</v>
+        <v>4.233609761091651</v>
       </c>
       <c r="D58">
-        <v>2.547181449541469E-06</v>
+        <v>0.0003410168527335777</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -1419,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>5.628975667346491</v>
+        <v>4.286107696026305</v>
       </c>
       <c r="D59">
-        <v>5.560486515676644E-08</v>
+        <v>0.0002999616353533963</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -1436,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>7.135638097145171</v>
+        <v>5.666122478986837</v>
       </c>
       <c r="D60">
-        <v>5.720979245893432E-12</v>
+        <v>1.067804402676842E-05</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -1453,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>7.904473336526208</v>
+        <v>6.046966344571899</v>
       </c>
       <c r="D61">
-        <v>2.375877272697835E-14</v>
+        <v>4.368371011587158E-06</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -1470,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>7.50142146785267</v>
+        <v>6.011397089147072</v>
       </c>
       <c r="D62">
-        <v>4.505285033928885E-13</v>
+        <v>4.745522187876716E-06</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1487,10 +1487,10 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>7.268537000986087</v>
+        <v>8.007952831548478</v>
       </c>
       <c r="D63">
-        <v>2.3046009545169E-12</v>
+        <v>5.806658842644197E-08</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -1504,10 +1504,10 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>9.249954030775257</v>
+        <v>5.746966964764621</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>8.821391913160781E-06</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -1521,10 +1521,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>7.874343128275965</v>
+        <v>7.25010344191222</v>
       </c>
       <c r="D65">
-        <v>2.97539770599542E-14</v>
+        <v>2.905696052657447E-07</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -1538,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0.5333719674810627</v>
+        <v>0.4600762888447206</v>
       </c>
       <c r="D66">
-        <v>0.6067316732500676</v>
+        <v>0.6499762046036415</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -1555,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>0.8679322243904682</v>
+        <v>0.8043674110064734</v>
       </c>
       <c r="D67">
-        <v>0.4022439599054577</v>
+        <v>0.4297917795193822</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -1572,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>-0.01864623655656174</v>
+        <v>-0.01821346673869894</v>
       </c>
       <c r="D68">
-        <v>0.9856428175419636</v>
+        <v>0.9856327348448009</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -1589,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>0.1215608505039952</v>
+        <v>0.1206867793560985</v>
       </c>
       <c r="D69">
-        <v>0.9066100980529868</v>
+        <v>0.9050345930354642</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -1606,13 +1606,13 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <v>1.894091908761226</v>
+        <v>2.266184405537039</v>
       </c>
       <c r="D70">
-        <v>0.06755822882963347</v>
+        <v>0.03362187756545043</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="C71">
-        <v>6.94495170260025</v>
+        <v>3.918077605372396</v>
       </c>
       <c r="D71">
-        <v>2.050182246193799E-11</v>
+        <v>0.0007363391154457943</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>6.577379263357245</v>
+        <v>4.183102404599025</v>
       </c>
       <c r="D72">
-        <v>2.186013592364588E-10</v>
+        <v>0.0003857997176008876</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -1657,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>7.34435645151481</v>
+        <v>6.230586074180454</v>
       </c>
       <c r="D73">
-        <v>1.362021606610142E-12</v>
+        <v>2.855354205744121E-06</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_tabla_diebold_mariano.xlsx
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>6.344614883164578</v>
+        <v>9.870731880388252</v>
       </c>
       <c r="D50">
-        <v>2.197108210477694E-06</v>
+        <v>1.528800641636963E-09</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>4.456080084220476</v>
+        <v>4.45838598591608</v>
       </c>
       <c r="D51">
-        <v>0.0001980130164593863</v>
+        <v>0.0001969007947060231</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -1300,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>5.620627292294299</v>
+        <v>5.762959678840502</v>
       </c>
       <c r="D52">
-        <v>1.189320252614756E-05</v>
+        <v>8.49495688237667E-06</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -1317,10 +1317,10 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>6.025625107413418</v>
+        <v>6.037894737575589</v>
       </c>
       <c r="D53">
-        <v>4.590822228811575E-06</v>
+        <v>4.461552906676047E-06</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -1334,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>6.005243624812292</v>
+        <v>5.975061803818217</v>
       </c>
       <c r="D54">
-        <v>4.814066743019652E-06</v>
+        <v>5.16519300819418E-06</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -1351,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>8.012173778048647</v>
+        <v>8.033005460928365</v>
       </c>
       <c r="D55">
-        <v>5.756053234051706E-08</v>
+        <v>5.512877110369629E-08</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>5.693267506750887</v>
+        <v>5.786140801158132</v>
       </c>
       <c r="D56">
-        <v>1.001396999433801E-05</v>
+        <v>8.043497842891156E-06</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>7.305415274211782</v>
+        <v>7.226498109201343</v>
       </c>
       <c r="D57">
-        <v>2.57681175064306E-07</v>
+        <v>3.058914341824703E-07</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
